--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F2_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F2_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,7 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,14 +224,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -517,18 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">

--- a/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F2_dim10.xlsx
+++ b/tables/ODE/ODE_rand_F_09_Cr_05_Jr_03_pop_30/ODE_table2_F2_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>381185611.392011</v>
       </c>
       <c r="AZ2" t="n">
-        <v>108048629.9019501</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>277180658.152984</v>
+        <v>280563298.7180046</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>205630824.4899517</v>
@@ -1011,15 +1002,12 @@
         <v>204937618.6453265</v>
       </c>
       <c r="AZ3" t="n">
-        <v>108048629.9019501</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>160803730.3962765</v>
+        <v>161858832.4061631</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>30338354.94946812</v>
@@ -1030,716 +1018,1729 @@
       <c r="D4" t="n">
         <v>14431285.72593232</v>
       </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+      <c r="E4" t="n">
+        <v>39616617.11575963</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33017593.87271302</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16911810.90686848</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31245349.17591726</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13556351.1366296</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10966828.45736694</v>
+      </c>
       <c r="K4" t="n">
         <v>15159624.5084417</v>
       </c>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="L4" t="n">
+        <v>30816675.94908996</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23740107.00155987</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27217626.1352118</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24334092.30722192</v>
+      </c>
       <c r="P4" t="n">
         <v>8550414.032716271</v>
       </c>
       <c r="Q4" t="n">
         <v>23547382.64176928</v>
       </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
+      <c r="R4" t="n">
+        <v>40726531.76629218</v>
+      </c>
+      <c r="S4" t="n">
+        <v>28077790.62035789</v>
+      </c>
+      <c r="T4" t="n">
+        <v>16404272.60312488</v>
+      </c>
+      <c r="U4" t="n">
+        <v>49191338.42861726</v>
+      </c>
+      <c r="V4" t="n">
+        <v>24352859.37907579</v>
+      </c>
+      <c r="W4" t="n">
+        <v>15287425.27727673</v>
+      </c>
       <c r="X4" t="n">
         <v>32153511.43239273</v>
       </c>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
+      <c r="Y4" t="n">
+        <v>29410970.0614929</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30506147.99311091</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>14985662.41943647</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3858811.10036355</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>31940737.73859327</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>39100058.11703333</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>33867270.42817459</v>
+      </c>
       <c r="AF4" t="n">
         <v>53023402.01064783</v>
       </c>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
+      <c r="AG4" t="n">
+        <v>16784033.80592525</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>27110047.67184198</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11074568.37337809</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>33374582.40872128</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>69480953.9514288</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>36654554.90462246</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>9745194.982814619</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>37468246.20986521</v>
+      </c>
       <c r="AO4" t="n">
         <v>40728195.74134139</v>
       </c>
-      <c r="AP4" t="s"/>
+      <c r="AP4" t="n">
+        <v>36559867.03107683</v>
+      </c>
       <c r="AQ4" t="n">
         <v>33448560.57422765</v>
       </c>
-      <c r="AR4" t="s"/>
+      <c r="AR4" t="n">
+        <v>13912840.33297675</v>
+      </c>
       <c r="AS4" t="n">
         <v>32342750.85114508</v>
       </c>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
-      <c r="AY4" t="s"/>
+      <c r="AT4" t="n">
+        <v>16799465.565411</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>25578258.85775277</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>20709319.54263828</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5330363.59144773</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>30004733.79897373</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>47632142.93066294</v>
+      </c>
       <c r="AZ4" t="n">
-        <v>48531971.91533235</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>29964590.17587675</v>
+        <v>27167904.24292029</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>254</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>2154395.48315992</v>
       </c>
-      <c r="C5" t="s"/>
+      <c r="C5" t="n">
+        <v>2161852.12415339</v>
+      </c>
       <c r="D5" t="n">
         <v>1475674.22946988</v>
       </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+      <c r="E5" t="n">
+        <v>6045326.52582536</v>
+      </c>
+      <c r="F5" t="n">
+        <v>751594.6620752499</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2610613.77116275</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1046712.30782777</v>
+      </c>
+      <c r="I5" t="n">
+        <v>437650.94764361</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1261011.98227106</v>
+      </c>
+      <c r="K5" t="n">
+        <v>645864.42107014</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1911450.02837247</v>
+      </c>
+      <c r="M5" t="n">
+        <v>933164.17812747</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1453660.05971102</v>
+      </c>
+      <c r="O5" t="n">
+        <v>958805.39171474</v>
+      </c>
       <c r="P5" t="n">
         <v>613805.15364036</v>
       </c>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3285571.45043773</v>
+      </c>
+      <c r="R5" t="n">
+        <v>872959.16629508</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4393376.66466979</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2229787.25183456</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1369514.72707591</v>
+      </c>
+      <c r="V5" t="n">
+        <v>418827.59759391</v>
+      </c>
+      <c r="W5" t="n">
+        <v>688071.84906772</v>
+      </c>
       <c r="X5" t="n">
         <v>627038.60839856</v>
       </c>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
+      <c r="Y5" t="n">
+        <v>4134478.62774418</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2240633.73383337</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>274839.43317701</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>713910.0156610199</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>843696.92336676</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1265319.41376022</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1008588.0799015</v>
+      </c>
       <c r="AF5" t="n">
         <v>380499.47793404</v>
       </c>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
+      <c r="AG5" t="n">
+        <v>2323368.52439899</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>653192.78113782</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>714286.6185818</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>409107.8716089</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2868327.54926127</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>386817.77898301</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1570509.67111903</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4152630.70630292</v>
+      </c>
       <c r="AO5" t="n">
         <v>4573372.50951407</v>
       </c>
-      <c r="AP5" t="s"/>
+      <c r="AP5" t="n">
+        <v>886034.62551992</v>
+      </c>
       <c r="AQ5" t="n">
         <v>467073.97366403</v>
       </c>
-      <c r="AR5" t="s"/>
+      <c r="AR5" t="n">
+        <v>1120036.57932036</v>
+      </c>
       <c r="AS5" t="n">
         <v>990070.15744152</v>
       </c>
-      <c r="AT5" t="s"/>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="n">
-        <v>1410241.1991528</v>
+      <c r="AT5" t="n">
+        <v>830000.2439211</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2191234.99574366</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>388138.45706779</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1638658.53002671</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2624406.55473538</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>3919620.25308243</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1638311.65336815</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>507</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>710144.35018239</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
+      <c r="C6" t="n">
+        <v>283194.19822094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>575237.15550357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>447253.03071734</v>
+      </c>
+      <c r="F6" t="n">
+        <v>209429.93897917</v>
+      </c>
+      <c r="G6" t="n">
+        <v>240291.63742132</v>
+      </c>
+      <c r="H6" t="n">
+        <v>365426.49610803</v>
+      </c>
+      <c r="I6" t="n">
+        <v>301317.59106075</v>
+      </c>
+      <c r="J6" t="n">
+        <v>104282.31227925</v>
+      </c>
+      <c r="K6" t="n">
+        <v>568929.99022024</v>
+      </c>
+      <c r="L6" t="n">
+        <v>602984.55334474</v>
+      </c>
+      <c r="M6" t="n">
+        <v>323453.55713594</v>
+      </c>
+      <c r="N6" t="n">
+        <v>592134.3358406</v>
+      </c>
+      <c r="O6" t="n">
+        <v>328192.52365273</v>
+      </c>
+      <c r="P6" t="n">
+        <v>607208.00917967</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>126221.75222522</v>
+      </c>
+      <c r="R6" t="n">
+        <v>406142.14215383</v>
+      </c>
+      <c r="S6" t="n">
+        <v>858408.39718841</v>
+      </c>
+      <c r="T6" t="n">
+        <v>550063.6243211899</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1066193.86815422</v>
+      </c>
+      <c r="V6" t="n">
+        <v>248291.97463563</v>
+      </c>
+      <c r="W6" t="n">
+        <v>396827.12312066</v>
+      </c>
+      <c r="X6" t="n">
+        <v>590321.8068532899</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>485132.95433104</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>568804.92944945</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>130645.55217301</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>203438.01225795</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>210930.03711881</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>242226.45136136</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>437198.76201594</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>177556.09836475</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>387861.14333309</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>148588.58552428</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>144342.63351856</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>367094.55113942</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>603132.56788072</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>359486.92653216</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>831955.32200334</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>443505.83301128</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>410689.54107128</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>275701.95425355</v>
+      </c>
       <c r="AQ6" t="n">
         <v>222072.29523291</v>
       </c>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="n">
-        <v>466108.32270765</v>
+      <c r="AR6" t="n">
+        <v>499626.03168276</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>651950.91995265</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>220125.92514383</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>664315.14645107</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>300999.42898611</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>865885.5152758</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1253737.84182697</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>726082.57527467</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>446700.75807332</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>761</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>104268.58698577</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
+      <c r="C7" t="n">
+        <v>199212.03537683</v>
+      </c>
+      <c r="D7" t="n">
+        <v>312263.49661456</v>
+      </c>
+      <c r="E7" t="n">
+        <v>447253.03071734</v>
+      </c>
+      <c r="F7" t="n">
+        <v>196443.4626226</v>
+      </c>
+      <c r="G7" t="n">
+        <v>125805.16276555</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75156.71061581001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>170028.58382904</v>
+      </c>
+      <c r="J7" t="n">
+        <v>102222.50232503</v>
+      </c>
+      <c r="K7" t="n">
+        <v>473371.22133614</v>
+      </c>
+      <c r="L7" t="n">
+        <v>389841.59904232</v>
+      </c>
+      <c r="M7" t="n">
+        <v>305150.1578589</v>
+      </c>
+      <c r="N7" t="n">
+        <v>157359.66629162</v>
+      </c>
+      <c r="O7" t="n">
+        <v>193036.75451624</v>
+      </c>
+      <c r="P7" t="n">
+        <v>187653.8365715</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>67922.41826526</v>
+      </c>
+      <c r="R7" t="n">
+        <v>354400.4906411</v>
+      </c>
+      <c r="S7" t="n">
+        <v>647707.36104735</v>
+      </c>
+      <c r="T7" t="n">
+        <v>248417.84606808</v>
+      </c>
+      <c r="U7" t="n">
+        <v>713961.09360884</v>
+      </c>
+      <c r="V7" t="n">
+        <v>212851.81114072</v>
+      </c>
+      <c r="W7" t="n">
+        <v>282293.86831136</v>
+      </c>
+      <c r="X7" t="n">
+        <v>226417.97398608</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>348002.57358807</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>255271.1798895</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>89532.39171252</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>176664.00047374</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>104009.13191959</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>87335.83943712</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>434116.2780513</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>71734.88377718</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>353299.86393172</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>135061.32761099</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>144342.63351856</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>174747.61100744</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>27483.47054077</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>215185.4098639</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>406142.45848688</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>314246.32650873</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>143924.66813447</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>187669.76306171</v>
+      </c>
       <c r="AQ7" t="n">
         <v>107495.82009644</v>
       </c>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="n">
-        <v>105882.2035411</v>
+      <c r="AR7" t="n">
+        <v>99336.24176957</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>258413.07506994</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>113570.00048977</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>466790.24111881</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>77751.19736298</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>783186.4714354899</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>114450.14034136</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>94526.37495526001</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>239546.58089384</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1015</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>82715.21350908</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
+      <c r="C8" t="n">
+        <v>125845.81209294</v>
+      </c>
+      <c r="D8" t="n">
+        <v>139621.93759511</v>
+      </c>
+      <c r="E8" t="n">
+        <v>338930.50031304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>92162.74039511</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100669.42323076</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66843.0580409</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20287.23788589</v>
+      </c>
+      <c r="J8" t="n">
+        <v>48000.60685767</v>
+      </c>
+      <c r="K8" t="n">
+        <v>232136.13951235</v>
+      </c>
+      <c r="L8" t="n">
+        <v>280315.49351387</v>
+      </c>
+      <c r="M8" t="n">
+        <v>75564.29283773999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>148777.37030634</v>
+      </c>
+      <c r="O8" t="n">
+        <v>68903.04401896</v>
+      </c>
+      <c r="P8" t="n">
+        <v>183150.02130432</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>45920.56068773</v>
+      </c>
+      <c r="R8" t="n">
+        <v>115102.93624441</v>
+      </c>
+      <c r="S8" t="n">
+        <v>183898.94958049</v>
+      </c>
+      <c r="T8" t="n">
+        <v>108076.86179553</v>
+      </c>
+      <c r="U8" t="n">
+        <v>474863.36569877</v>
+      </c>
+      <c r="V8" t="n">
+        <v>162096.91419112</v>
+      </c>
+      <c r="W8" t="n">
+        <v>43654.77649237</v>
+      </c>
+      <c r="X8" t="n">
+        <v>119308.79300522</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>147938.98118378</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>138171.52987042</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34979.52104056</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>120317.53911952</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>49362.07783112</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>84684.12960474</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>168655.82634842</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>63403.21443267</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>217881.0948632</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>91510.01214992</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>144342.63351856</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>81423.5921498</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>27483.47054077</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>35771.94828881</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>170364.69789192</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>124988.49607875</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>142879.03605899</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>105992.25833658</v>
+      </c>
       <c r="AQ8" t="n">
         <v>52724.91204656</v>
       </c>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="n">
-        <v>67720.06277782</v>
+      <c r="AR8" t="n">
+        <v>99336.24176957</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>161731.98024773</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>72441.18072598</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>270640.21326803</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>77115.81530187999</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>441120.79703551</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>86203.59166408</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>90683.35436486</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>131179.88389685</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1268</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>73100.16625015999</v>
       </c>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
+      <c r="C9" t="n">
+        <v>85828.29527194001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>119580.23486306</v>
+      </c>
+      <c r="E9" t="n">
+        <v>204740.05970139</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33855.1695847</v>
+      </c>
+      <c r="G9" t="n">
+        <v>84605.55040049</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32775.7054972</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14741.63743414</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17457.72585701</v>
+      </c>
+      <c r="K9" t="n">
+        <v>214394.62287356</v>
+      </c>
+      <c r="L9" t="n">
+        <v>158676.12633852</v>
+      </c>
+      <c r="M9" t="n">
+        <v>44793.99169239</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99629.2437119</v>
+      </c>
+      <c r="O9" t="n">
+        <v>55207.41305335</v>
+      </c>
+      <c r="P9" t="n">
+        <v>82489.68654946001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>31701.26067365</v>
+      </c>
+      <c r="R9" t="n">
+        <v>103299.88245624</v>
+      </c>
+      <c r="S9" t="n">
+        <v>167539.8667646</v>
+      </c>
+      <c r="T9" t="n">
+        <v>58331.53406524</v>
+      </c>
+      <c r="U9" t="n">
+        <v>98351.33093561001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>121854.69767338</v>
+      </c>
+      <c r="W9" t="n">
+        <v>31833.78504325</v>
+      </c>
+      <c r="X9" t="n">
+        <v>44986.05941054</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>147938.98118378</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>96854.64488875</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>24234.63257105</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>84317.93360439</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>35430.37936694</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>48873.70119279</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>168347.19949684</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>53997.17954178</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>91131.92742787</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>40301.0208096</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>49591.81790954</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>78099.67199247</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>27345.00759198</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>35606.14889876</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>111927.19346811</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>73655.06597374</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>80227.83683265001</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>71401.98217452</v>
+      </c>
       <c r="AQ9" t="n">
         <v>21175.08245359</v>
       </c>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="n">
-        <v>47137.62435187</v>
+      <c r="AR9" t="n">
+        <v>53396.84588129</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>23755.076986</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>52008.11773652</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>203881.67005889</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>42822.81825926</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>71997.04644291</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>39318.26156219</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>89519.97193797999</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>77938.62524692</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1522</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>29778.85712049</v>
       </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
+      <c r="C10" t="n">
+        <v>58036.8660238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>91551.86152260999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>164136.47902829</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27278.27059652</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64658.94296995</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32232.49839226</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11254.21597237</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9297.85164296</v>
+      </c>
+      <c r="K10" t="n">
+        <v>62237.83086673</v>
+      </c>
+      <c r="L10" t="n">
+        <v>54316.56338082</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40170.75630566</v>
+      </c>
+      <c r="N10" t="n">
+        <v>99625.81270147</v>
+      </c>
+      <c r="O10" t="n">
+        <v>45136.94132688</v>
+      </c>
+      <c r="P10" t="n">
+        <v>31676.79572683</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>20047.45944632</v>
+      </c>
+      <c r="R10" t="n">
+        <v>80771.42598574</v>
+      </c>
+      <c r="S10" t="n">
+        <v>106404.68641656</v>
+      </c>
+      <c r="T10" t="n">
+        <v>51823.75671378</v>
+      </c>
+      <c r="U10" t="n">
+        <v>98351.33093561001</v>
+      </c>
+      <c r="V10" t="n">
+        <v>53603.43023494</v>
+      </c>
+      <c r="W10" t="n">
+        <v>31833.78504325</v>
+      </c>
+      <c r="X10" t="n">
+        <v>44456.01948789</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>145270.52722158</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34921.14473826</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>24189.45110393</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>64575.02390356</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>22101.76414544</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>43775.65173326</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>89482.38074995999</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>53503.03039047</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>90443.44523052999</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25669.5784668</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>48044.29017172</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>22586.30990441</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>5449.74422745</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>33464.07796029</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>44137.08420165</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>48512.0700782</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>41345.20105875</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>35163.48773661</v>
+      </c>
       <c r="AQ10" t="n">
         <v>9615.31044143</v>
       </c>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="n">
-        <v>19697.08378096</v>
+      <c r="AR10" t="n">
+        <v>36413.93504153</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>23755.076986</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>12159.80492427</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>94592.51043621</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>26990.17928609</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>71573.21415309999</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>30562.65996246</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41360.36798638</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>50566.79520164</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1776</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>13577.0497181</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
+      <c r="C11" t="n">
+        <v>58036.8660238</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47517.98614557</v>
+      </c>
+      <c r="E11" t="n">
+        <v>132620.75363126</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13123.95517911</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42868.43969673</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27292.49867219</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11254.21597237</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7043.6085212</v>
+      </c>
+      <c r="K11" t="n">
+        <v>49045.04426524</v>
+      </c>
+      <c r="L11" t="n">
+        <v>39811.55598633</v>
+      </c>
+      <c r="M11" t="n">
+        <v>38493.3541127</v>
+      </c>
+      <c r="N11" t="n">
+        <v>42778.86564574</v>
+      </c>
+      <c r="O11" t="n">
+        <v>34043.79890484</v>
+      </c>
+      <c r="P11" t="n">
+        <v>20856.8714225</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>16994.8737189</v>
+      </c>
+      <c r="R11" t="n">
+        <v>76177.26565659</v>
+      </c>
+      <c r="S11" t="n">
+        <v>63234.94978273</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14289.76885557</v>
+      </c>
+      <c r="U11" t="n">
+        <v>97259.48311919</v>
+      </c>
+      <c r="V11" t="n">
+        <v>49010.38608371</v>
+      </c>
+      <c r="W11" t="n">
+        <v>19531.76209711</v>
+      </c>
+      <c r="X11" t="n">
+        <v>25675.37019074</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>59083.62037726</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26118.02225313</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>20888.71848448</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>46822.64536939</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10835.68584553</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>42651.017179</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>88705.40303502</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>36798.90878929</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>59997.46477747</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16121.37541458</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23877.76124956</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>22586.30990441</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5442.17389896</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23496.92251728</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>19803.95330175</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>37247.36621062</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19980.00601484</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17649.24266024</v>
+      </c>
       <c r="AQ11" t="n">
         <v>7366.25845771</v>
       </c>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="n">
-        <v>10471.6540879</v>
+      <c r="AR11" t="n">
+        <v>26789.36670189</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>23651.56032133</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>11385.71651956</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>94592.51043621</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>17458.9346015</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>63597.04351097</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15386.45969713</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>14264.01270078</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>35862.74367264</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2030</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>10912.45994467</v>
       </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
+      <c r="C12" t="n">
+        <v>44685.97852398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43363.81457908</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48320.00668124</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10439.60844399</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18973.79839043</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17825.14425073</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8898.76948755</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5759.26833196</v>
+      </c>
+      <c r="K12" t="n">
+        <v>49014.37135084</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39811.55598633</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24866.12005481</v>
+      </c>
+      <c r="N12" t="n">
+        <v>29386.36260093</v>
+      </c>
+      <c r="O12" t="n">
+        <v>32509.46478724</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20651.78095566</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>12818.49549807</v>
+      </c>
+      <c r="R12" t="n">
+        <v>67396.89522681999</v>
+      </c>
+      <c r="S12" t="n">
+        <v>22306.88417741</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14275.18321343</v>
+      </c>
+      <c r="U12" t="n">
+        <v>54761.82775421</v>
+      </c>
+      <c r="V12" t="n">
+        <v>45918.25320867</v>
+      </c>
+      <c r="W12" t="n">
+        <v>16414.45657709</v>
+      </c>
+      <c r="X12" t="n">
+        <v>25016.68080209</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>58574.50963078</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2506.71504921</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7258.99142933</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6885.51492124</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7765.36847731</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17118.34287787</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>25971.49033365</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>30374.11580072</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>22795.17945238</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9283.014598870001</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17733.47659724</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>22586.30990441</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5442.17389896</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13182.41763641</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>18392.41875305</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>37181.08454063</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>16264.65653459</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>16210.81025987</v>
+      </c>
       <c r="AQ12" t="n">
         <v>5583.43958356</v>
       </c>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="n">
-        <v>8247.94976412</v>
+      <c r="AR12" t="n">
+        <v>12538.89937327</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>23529.695679</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>11064.48452329</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>91615.37642909</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>12331.64747071</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>59361.49890258</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2072.01091777</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>14264.01270078</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>24644.29674208</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2283</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>8581.490690389999</v>
       </c>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
+      <c r="C13" t="n">
+        <v>35936.21637257</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30421.47460417</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27670.69127885</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6073.05172485</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18973.79839043</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7828.30836308</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6986.18770552</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5758.95248458</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18539.37350807</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32429.09556183</v>
+      </c>
+      <c r="M13" t="n">
+        <v>17004.3413961</v>
+      </c>
+      <c r="N13" t="n">
+        <v>28206.34182592</v>
+      </c>
+      <c r="O13" t="n">
+        <v>32272.06568626</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15438.13393816</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5144.80453233</v>
+      </c>
+      <c r="R13" t="n">
+        <v>35779.22787177</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20374.34523295</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14275.18321343</v>
+      </c>
+      <c r="U13" t="n">
+        <v>52678.39896524</v>
+      </c>
+      <c r="V13" t="n">
+        <v>21947.91905398</v>
+      </c>
+      <c r="W13" t="n">
+        <v>16414.45657709</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16837.29902068</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>58323.57254574</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>784.01095666</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5355.05542194</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6079.48193032</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4708.22921198</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15414.74699989</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>25971.49033365</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20761.09370147</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21325.61132887</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6151.98856995</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>16600.46582152</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>16624.96404159</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>5442.17389896</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>5799.40339663</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>7974.7783059</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>20223.01564114</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>14181.46796094</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15860.02381627</v>
+      </c>
       <c r="AQ13" t="n">
         <v>5295.85786574</v>
       </c>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="n">
-        <v>6938.67427806</v>
+      <c r="AR13" t="n">
+        <v>12102.53009869</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>17930.76488566</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>9317.87339282</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>60394.4769516</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>11926.04718682</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>39236.44890211</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1663.21503885</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>11971.82040893</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>18259.83533226</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>2537</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>3504.32353146</v>
       </c>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
+      <c r="C14" t="n">
+        <v>32328.76824894</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30421.47460417</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22606.49699467</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4665.81862029</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14031.64946651</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6300.29130576</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6954.54191869</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2558.52912504</v>
+      </c>
+      <c r="K14" t="n">
+        <v>18539.37350807</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8519.74103162</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14518.0839234</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17783.53753926</v>
+      </c>
+      <c r="O14" t="n">
+        <v>19446.03841204</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10768.8719853</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2924.60571445</v>
+      </c>
+      <c r="R14" t="n">
+        <v>30248.22041364</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20374.34523295</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9075.05689419</v>
+      </c>
+      <c r="U14" t="n">
+        <v>38429.51294272</v>
+      </c>
+      <c r="V14" t="n">
+        <v>20862.57720016</v>
+      </c>
+      <c r="W14" t="n">
+        <v>16414.45657709</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9899.84110147</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>24099.62640606</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>751.32457035</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3349.00927763</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5906.49420508</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2946.97184502</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14887.8076984</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>25969.31757221</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16284.06372613</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>20244.0391078</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6080.59516239</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15877.41279107</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11696.57007169</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3095.31265106</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3585.3685642</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>5264.26967837</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>14213.16659325</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10880.1495723</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>7202.53613428</v>
+      </c>
       <c r="AQ14" t="n">
         <v>4743.6797256</v>
       </c>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="n">
-        <v>4124.00162853</v>
+      <c r="AR14" t="n">
+        <v>10636.04281861</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>11100.95048922</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>6801.91931113</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>28678.9213474</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>4742.27800328</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>21004.72908802</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1304.47258132</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>9517.55312301</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>13040.81476814</v>
       </c>
     </row>
   </sheetData>
